--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="212">
   <si>
     <t>Abilene</t>
   </si>
@@ -658,6 +658,9 @@
   </si>
   <si>
     <t>Image</t>
+  </si>
+  <si>
+    <t>LocationCode</t>
   </si>
 </sst>
 </file>
@@ -724,9 +727,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I46" totalsRowShown="0">
-  <autoFilter ref="A1:I46"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:J46" totalsRowShown="0">
+  <autoFilter ref="A1:J46"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="Location"/>
     <tableColumn id="2" name="Seasonal"/>
     <tableColumn id="3" name="Address"/>
@@ -736,6 +739,7 @@
     <tableColumn id="7" name="Zip"/>
     <tableColumn id="8" name="Phone"/>
     <tableColumn id="9" name="Services"/>
+    <tableColumn id="10" name="LocationCode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1382,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1397,9 +1401,10 @@
     <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -1427,8 +1432,11 @@
       <c r="I1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -1457,7 +1465,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1482,8 +1490,11 @@
       <c r="I3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1508,8 +1519,11 @@
       <c r="I4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1535,7 +1549,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1560,8 +1574,11 @@
       <c r="I6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1586,8 +1603,11 @@
       <c r="I7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1612,8 +1632,11 @@
       <c r="I8" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1638,8 +1661,11 @@
       <c r="I9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -1665,7 +1691,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1690,8 +1716,11 @@
       <c r="I11" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -1717,7 +1746,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1742,8 +1771,11 @@
       <c r="I13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1769,7 +1801,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1794,8 +1826,11 @@
       <c r="I15" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1820,8 +1855,11 @@
       <c r="I16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1846,8 +1884,11 @@
       <c r="I17" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1872,8 +1913,11 @@
       <c r="I18" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1898,8 +1942,11 @@
       <c r="I19" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1924,8 +1971,11 @@
       <c r="I20" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1951,7 +2001,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1976,8 +2026,11 @@
       <c r="I22" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2002,8 +2055,11 @@
       <c r="I23" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2028,8 +2084,11 @@
       <c r="I24" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2055,7 +2114,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>152</v>
       </c>
@@ -2080,8 +2139,11 @@
       <c r="I26" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -2106,8 +2168,11 @@
       <c r="I27" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>157</v>
       </c>
@@ -2133,7 +2198,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>160</v>
       </c>
@@ -2159,7 +2224,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -2184,8 +2249,11 @@
       <c r="I30" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>166</v>
       </c>
@@ -2210,8 +2278,11 @@
       <c r="I31" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>169</v>
       </c>
@@ -2237,7 +2308,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>174</v>
       </c>
@@ -2265,8 +2336,11 @@
       <c r="I33" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -2292,7 +2366,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -2317,8 +2391,11 @@
       <c r="I35" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -2343,8 +2420,11 @@
       <c r="I36" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>181</v>
       </c>
@@ -2369,8 +2449,11 @@
       <c r="I37" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>186</v>
       </c>
@@ -2396,7 +2479,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>189</v>
       </c>
@@ -2418,8 +2501,11 @@
       <c r="I39" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -2444,8 +2530,11 @@
       <c r="I40" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -2470,8 +2559,11 @@
       <c r="I41" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>32</v>
       </c>
@@ -2496,8 +2588,11 @@
       <c r="I42" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -2522,8 +2617,11 @@
       <c r="I43" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -2548,8 +2646,11 @@
       <c r="I44" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>203</v>
       </c>
@@ -2575,7 +2676,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>35</v>
       </c>
